--- a/.pic/Labs/lab_05_decoder/rv32i_summary.xlsx
+++ b/.pic/Labs/lab_05_decoder/rv32i_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voult\Desktop\APS\technical\Labs\Pic\lab_05_decoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ABA1EA-3A37-43F4-94F0-897BD39A6082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D7826F-83E1-4433-833B-0C0A920AA975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EB09394A-D6B3-4632-AD26-E6834047279C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="236">
   <si>
     <t>Instr</t>
   </si>
@@ -3034,6 +3034,892 @@
   </si>
   <si>
     <t>opcode</t>
+  </si>
+  <si>
+    <t>csrrw</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ontrol </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tatus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">egister </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ead </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rite</t>
+    </r>
+  </si>
+  <si>
+    <t>csrrs</t>
+  </si>
+  <si>
+    <t>csrrc</t>
+  </si>
+  <si>
+    <t>csrrwi</t>
+  </si>
+  <si>
+    <t>csrrsi</t>
+  </si>
+  <si>
+    <t>csrrci</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ontrol </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tatus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">egister </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ead </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ontrol </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tatus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">egister </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ead </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lear</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ontrol </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tatus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">egister </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ead </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rite </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mmediate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ontrol </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tatus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">egister </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ead </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mmediate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ontrol </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tatus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">egister </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ead </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lear</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mmediate</t>
+    </r>
+  </si>
+  <si>
+    <t>csr &amp;= ~rs1; rd = csr</t>
+  </si>
+  <si>
+    <t>csr  =  rs1; rd = csr</t>
+  </si>
+  <si>
+    <t>csr |=  rs1; rd = csr</t>
+  </si>
+  <si>
+    <t>csr  =  imm; rd = csr</t>
+  </si>
+  <si>
+    <t>csr |=  imm; rd = csr</t>
+  </si>
+  <si>
+    <t>csr &amp;= ~imm; rd = csr</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Записать в регистровый файл значение </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-регистра.
+Обновить значение </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-регистра в соответствии с вызываемой инструкцией (см. описание).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">csrop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>rd, csr, rs1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">csrrwi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>x0, mie, 0x0FF</t>
+    </r>
+  </si>
+  <si>
+    <t>mret</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">achine mode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>URN</t>
+    </r>
+  </si>
+  <si>
+    <t>Возврат управления от обработчика прерывания/исключения</t>
+  </si>
+  <si>
+    <t>1110011</t>
+  </si>
+  <si>
+    <t>PC = mepc</t>
   </si>
 </sst>
 </file>
@@ -3199,7 +4085,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -3420,11 +4306,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3553,25 +4450,64 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3580,38 +4516,56 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3932,22 +4886,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4B31E3-B287-4359-8B24-03B2324659CD}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
@@ -3993,10 +4947,10 @@
       <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="51" t="s">
         <v>195</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -4019,8 +4973,8 @@
       <c r="D3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="54"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
@@ -4041,8 +4995,8 @@
       <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="54"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
@@ -4063,8 +5017,8 @@
       <c r="D5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="54"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
@@ -4088,8 +5042,8 @@
       <c r="D6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="54"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
@@ -4111,8 +5065,8 @@
       <c r="D7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="54"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="52"/>
       <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
@@ -4136,8 +5090,8 @@
       <c r="D8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="54"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="2" t="s">
         <v>37</v>
       </c>
@@ -4161,8 +5115,8 @@
       <c r="D9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="54"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="2" t="s">
         <v>37</v>
       </c>
@@ -4184,8 +5138,8 @@
       <c r="D10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="54"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="2" t="s">
         <v>44</v>
       </c>
@@ -4207,8 +5161,8 @@
       <c r="D11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="2" t="s">
         <v>47</v>
       </c>
@@ -4230,16 +5184,16 @@
       <c r="D12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="55" t="s">
         <v>196</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="48" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4256,12 +5210,12 @@
       <c r="D13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="54"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="47"/>
+      <c r="H13" s="49"/>
       <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4277,12 +5231,12 @@
       <c r="D14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="54"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="47"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="35" t="s">
         <v>147</v>
       </c>
@@ -4300,12 +5254,12 @@
       <c r="D15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="54"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="52"/>
       <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="47"/>
+      <c r="H15" s="49"/>
     </row>
     <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
@@ -4320,10 +5274,10 @@
       <c r="D16" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="F16" s="54"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="4" t="s">
         <v>33</v>
       </c>
@@ -4347,8 +5301,8 @@
       <c r="D17" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="54"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="2" t="s">
         <v>37</v>
       </c>
@@ -4372,8 +5326,8 @@
       <c r="D18" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="54"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="5" t="s">
         <v>37</v>
       </c>
@@ -4395,14 +5349,14 @@
       <c r="D19" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="54"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="63" t="s">
+      <c r="H19" s="62" t="s">
         <v>52</v>
       </c>
       <c r="I19" s="32"/>
@@ -4420,12 +5374,12 @@
       <c r="D20" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="49"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="53"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4441,16 +5395,16 @@
       <c r="D21" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="51" t="s">
         <v>197</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="54" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4467,12 +5421,12 @@
       <c r="D22" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="54"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="47"/>
+      <c r="H22" s="49"/>
       <c r="I22" s="35" t="s">
         <v>159</v>
       </c>
@@ -4490,12 +5444,12 @@
       <c r="D23" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="54"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="47"/>
+      <c r="H23" s="49"/>
       <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4511,12 +5465,12 @@
       <c r="D24" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="54"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="47"/>
+      <c r="H24" s="49"/>
       <c r="I24" s="33" t="s">
         <v>162</v>
       </c>
@@ -4534,12 +5488,12 @@
       <c r="D25" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="53"/>
+      <c r="H25" s="50"/>
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4555,16 +5509,16 @@
       <c r="D26" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="51" t="s">
         <v>198</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="54" t="s">
         <v>52</v>
       </c>
       <c r="I26" s="35" t="s">
@@ -4584,12 +5538,12 @@
       <c r="D27" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="54"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="47"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4605,12 +5559,12 @@
       <c r="D28" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="49"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="53"/>
+      <c r="H28" s="50"/>
       <c r="I28" s="36" t="s">
         <v>169</v>
       </c>
@@ -4628,16 +5582,16 @@
       <c r="D29" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="51" t="s">
         <v>199</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="54" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4654,12 +5608,12 @@
       <c r="D30" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="54"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="47"/>
+      <c r="H30" s="49"/>
       <c r="I30" s="35" t="s">
         <v>171</v>
       </c>
@@ -4677,12 +5631,12 @@
       <c r="D31" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="54"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H31" s="47"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="32"/>
     </row>
     <row r="32" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -4698,17 +5652,17 @@
       <c r="D32" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="54"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H32" s="47"/>
+      <c r="H32" s="49"/>
       <c r="I32" s="33" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>109</v>
       </c>
@@ -4721,17 +5675,17 @@
       <c r="D33" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="54"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H33" s="47"/>
+      <c r="H33" s="49"/>
       <c r="I33" s="33" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>111</v>
       </c>
@@ -4744,15 +5698,15 @@
       <c r="D34" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="55"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="53"/>
       <c r="G34" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H34" s="53"/>
+      <c r="H34" s="50"/>
       <c r="I34" s="34"/>
     </row>
-    <row r="35" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>113</v>
       </c>
@@ -4774,14 +5728,15 @@
       <c r="G35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="H35" s="54" t="s">
         <v>52</v>
       </c>
       <c r="I35" s="37" t="s">
         <v>185</v>
       </c>
+      <c r="N35" s="72"/>
     </row>
-    <row r="36" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>117</v>
       </c>
@@ -4803,12 +5758,12 @@
       <c r="G36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="53"/>
+      <c r="H36" s="50"/>
       <c r="I36" s="37" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>120</v>
       </c>
@@ -4821,116 +5776,291 @@
       <c r="D37" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="48" t="s">
         <v>123</v>
       </c>
       <c r="F37" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="50" t="s">
+      <c r="H37" s="54" t="s">
         <v>52</v>
       </c>
       <c r="I37" s="38" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="40" t="s">
+      <c r="E38" s="63"/>
+      <c r="F38" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
       <c r="I38" s="39" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="14" t="s">
+    <row r="39" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C40" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="46" t="s">
+      <c r="D40" s="71"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="G40" s="49"/>
+      <c r="H40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="65"/>
+    </row>
+    <row r="41" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="71"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="I41" s="83"/>
+    </row>
+    <row r="42" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="C42" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F42" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="G42" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="79" t="s">
+        <v>223</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="G39" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="51" t="s">
+      <c r="G43" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="75" t="s">
         <v>52</v>
       </c>
+      <c r="I43" s="66"/>
     </row>
-    <row r="40" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I40" s="52"/>
+    <row r="44" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" s="77"/>
+      <c r="D44" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" s="49"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="76"/>
+      <c r="I44" s="35" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="41" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="G41" s="47"/>
-      <c r="H41" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="52"/>
+    <row r="45" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="77"/>
+      <c r="D45" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" s="49"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="76"/>
+    </row>
+    <row r="46" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="77"/>
+      <c r="D46" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46" s="49"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="76"/>
+      <c r="I46" s="84" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="77"/>
+      <c r="D47" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47" s="49"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="76"/>
+      <c r="I47" s="73"/>
+    </row>
+    <row r="48" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="77"/>
+      <c r="D48" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="49"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="30">
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="F43:F48"/>
+    <mergeCell ref="E43:E48"/>
+    <mergeCell ref="H43:H48"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="H26:H28"/>
     <mergeCell ref="E2:E11"/>
     <mergeCell ref="F2:F11"/>
     <mergeCell ref="E12:E15"/>
@@ -4939,29 +6069,11 @@
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="I39:I41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F2:F35 F37:F41 F36" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:F35 F37:F38 F36" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/.pic/Labs/lab_05_decoder/rv32i_summary.xlsx
+++ b/.pic/Labs/lab_05_decoder/rv32i_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voult\Desktop\APS\technical\Labs\Pic\lab_05_decoder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voult\Desktop\APS-reborn\.pic\Labs\lab_05_decoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D7826F-83E1-4433-833B-0C0A920AA975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF510CA5-4311-49B3-88B3-9F226336A794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EB09394A-D6B3-4632-AD26-E6834047279C}"/>
+    <workbookView xWindow="3390" yWindow="2790" windowWidth="28800" windowHeight="18090" xr2:uid="{EB09394A-D6B3-4632-AD26-E6834047279C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2407,68 +2407,6 @@
   </si>
   <si>
     <r>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">amp </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">nd </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ink</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>jal</t>
     </r>
     <r>
@@ -2494,91 +2432,6 @@
   </si>
   <si>
     <r>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">amp </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">nd </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ink </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>egister</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>jalr</t>
     </r>
     <r>
@@ -3920,6 +3773,153 @@
   </si>
   <si>
     <t>PC = mepc</t>
+  </si>
+  <si>
+    <r>
+      <t>Ju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mp </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nd </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ink</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ump </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nd </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ink </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>egister</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4462,60 +4462,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4525,47 +4471,101 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4888,8 +4888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4B31E3-B287-4359-8B24-03B2324659CD}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I48" sqref="A1:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4922,13 +4922,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I1" s="28" t="s">
         <v>5</v>
@@ -4947,11 +4947,11 @@
       <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="51" t="s">
-        <v>195</v>
+      <c r="F2" s="62" t="s">
+        <v>193</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -4973,8 +4973,8 @@
       <c r="D3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="52"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
@@ -4995,8 +4995,8 @@
       <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="52"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
@@ -5017,8 +5017,8 @@
       <c r="D5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="52"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
@@ -5042,8 +5042,8 @@
       <c r="D6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="52"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
@@ -5065,8 +5065,8 @@
       <c r="D7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="52"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
@@ -5090,8 +5090,8 @@
       <c r="D8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="52"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="2" t="s">
         <v>37</v>
       </c>
@@ -5115,8 +5115,8 @@
       <c r="D9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="52"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="2" t="s">
         <v>37</v>
       </c>
@@ -5138,8 +5138,8 @@
       <c r="D10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="52"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="2" t="s">
         <v>44</v>
       </c>
@@ -5161,8 +5161,8 @@
       <c r="D11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="53"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="2" t="s">
         <v>47</v>
       </c>
@@ -5184,16 +5184,16 @@
       <c r="D12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="55" t="s">
-        <v>196</v>
+      <c r="F12" s="78" t="s">
+        <v>194</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="64" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5210,12 +5210,12 @@
       <c r="D13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="52"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="49"/>
+      <c r="H13" s="65"/>
       <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5231,12 +5231,12 @@
       <c r="D14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="52"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="49"/>
+      <c r="H14" s="65"/>
       <c r="I14" s="35" t="s">
         <v>147</v>
       </c>
@@ -5254,12 +5254,12 @@
       <c r="D15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="52"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="49"/>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
@@ -5274,10 +5274,10 @@
       <c r="D16" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="F16" s="52"/>
+      <c r="E16" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="63"/>
       <c r="G16" s="4" t="s">
         <v>33</v>
       </c>
@@ -5301,8 +5301,8 @@
       <c r="D17" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="52"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="2" t="s">
         <v>37</v>
       </c>
@@ -5326,8 +5326,8 @@
       <c r="D18" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="52"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="5" t="s">
         <v>37</v>
       </c>
@@ -5349,14 +5349,14 @@
       <c r="D19" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="84" t="s">
         <v>52</v>
       </c>
       <c r="I19" s="32"/>
@@ -5374,12 +5374,12 @@
       <c r="D20" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="56"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="50"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5395,16 +5395,16 @@
       <c r="D21" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="51" t="s">
-        <v>197</v>
+      <c r="F21" s="62" t="s">
+        <v>195</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="54" t="s">
+      <c r="H21" s="71" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5421,12 +5421,12 @@
       <c r="D22" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="52"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="49"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="35" t="s">
         <v>159</v>
       </c>
@@ -5444,12 +5444,12 @@
       <c r="D23" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="52"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="49"/>
+      <c r="H23" s="65"/>
       <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5465,12 +5465,12 @@
       <c r="D24" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="52"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="49"/>
+      <c r="H24" s="65"/>
       <c r="I24" s="33" t="s">
         <v>162</v>
       </c>
@@ -5488,12 +5488,12 @@
       <c r="D25" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="56"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="50"/>
+      <c r="H25" s="76"/>
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5509,16 +5509,16 @@
       <c r="D26" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="51" t="s">
-        <v>198</v>
+      <c r="F26" s="62" t="s">
+        <v>196</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="71" t="s">
         <v>52</v>
       </c>
       <c r="I26" s="35" t="s">
@@ -5538,12 +5538,12 @@
       <c r="D27" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="52"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="49"/>
+      <c r="H27" s="65"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5559,12 +5559,12 @@
       <c r="D28" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="56"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="50"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="36" t="s">
         <v>169</v>
       </c>
@@ -5582,16 +5582,16 @@
       <c r="D29" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="51" t="s">
-        <v>199</v>
+      <c r="F29" s="62" t="s">
+        <v>197</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="54" t="s">
+      <c r="H29" s="71" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5608,12 +5608,12 @@
       <c r="D30" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="52"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="49"/>
+      <c r="H30" s="65"/>
       <c r="I30" s="35" t="s">
         <v>171</v>
       </c>
@@ -5631,12 +5631,12 @@
       <c r="D31" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="52"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H31" s="49"/>
+      <c r="H31" s="65"/>
       <c r="I31" s="32"/>
     </row>
     <row r="32" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5652,12 +5652,12 @@
       <c r="D32" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="52"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H32" s="49"/>
+      <c r="H32" s="65"/>
       <c r="I32" s="33" t="s">
         <v>176</v>
       </c>
@@ -5675,12 +5675,12 @@
       <c r="D33" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="52"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H33" s="49"/>
+      <c r="H33" s="65"/>
       <c r="I33" s="33" t="s">
         <v>179</v>
       </c>
@@ -5698,12 +5698,12 @@
       <c r="D34" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="53"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77"/>
       <c r="G34" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H34" s="50"/>
+      <c r="H34" s="76"/>
       <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5711,7 +5711,7 @@
         <v>113</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>114</v>
@@ -5723,25 +5723,25 @@
         <v>116</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="54" t="s">
+      <c r="H35" s="71" t="s">
         <v>52</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="N35" s="72"/>
+        <v>184</v>
+      </c>
+      <c r="N35" s="52"/>
     </row>
     <row r="36" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>118</v>
@@ -5753,14 +5753,14 @@
         <v>51</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="50"/>
+      <c r="H36" s="76"/>
       <c r="I36" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5768,7 +5768,7 @@
         <v>120</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>121</v>
@@ -5776,43 +5776,43 @@
       <c r="D37" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="48" t="s">
+      <c r="E37" s="64" t="s">
         <v>123</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="G37" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="54" t="s">
+      <c r="H37" s="71" t="s">
         <v>52</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="67" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" s="68" t="s">
+      <c r="B38" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="63"/>
+      <c r="E38" s="72"/>
       <c r="F38" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
+        <v>201</v>
+      </c>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
       <c r="I38" s="39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5825,22 +5825,22 @@
       <c r="C39" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="48" t="s">
+      <c r="D39" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="64" t="s">
         <v>51</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="G39" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39" s="71" t="s">
         <v>10</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="64" t="s">
+      <c r="I39" s="68" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5849,59 +5849,59 @@
         <v>127</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C40" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="71"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="G40" s="49"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="G40" s="65"/>
       <c r="H40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="65"/>
+      <c r="I40" s="69"/>
     </row>
     <row r="41" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="67" t="s">
-        <v>194</v>
-      </c>
-      <c r="C41" s="68" t="s">
+      <c r="B41" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="74" t="s">
+      <c r="D41" s="75"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="I41" s="83"/>
+      <c r="I41" s="70"/>
     </row>
     <row r="42" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="B42" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="C42" s="80" t="s">
+      <c r="D42" s="58" t="s">
         <v>233</v>
-      </c>
-      <c r="D42" s="82" t="s">
-        <v>235</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>10</v>
@@ -5910,135 +5910,156 @@
         <v>52</v>
       </c>
       <c r="I42" s="39" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="C43" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" s="79" t="s">
-        <v>223</v>
-      </c>
-      <c r="E43" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="51" t="s">
-        <v>204</v>
+      <c r="F43" s="62" t="s">
+        <v>202</v>
       </c>
       <c r="G43" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="75" t="s">
+      <c r="H43" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="I43" s="66"/>
+      <c r="I43" s="48"/>
     </row>
     <row r="44" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="C44" s="77"/>
+        <v>215</v>
+      </c>
+      <c r="C44" s="61"/>
       <c r="D44" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="52"/>
+        <v>222</v>
+      </c>
+      <c r="E44" s="65"/>
+      <c r="F44" s="63"/>
       <c r="G44" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="76"/>
+      <c r="H44" s="67"/>
       <c r="I44" s="35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C45" s="77"/>
+        <v>216</v>
+      </c>
+      <c r="C45" s="61"/>
       <c r="D45" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E45" s="49"/>
-      <c r="F45" s="52"/>
+        <v>220</v>
+      </c>
+      <c r="E45" s="65"/>
+      <c r="F45" s="63"/>
       <c r="G45" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="H45" s="76"/>
+      <c r="H45" s="67"/>
     </row>
     <row r="46" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C46" s="77"/>
+        <v>217</v>
+      </c>
+      <c r="C46" s="61"/>
       <c r="D46" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="E46" s="49"/>
-      <c r="F46" s="52"/>
+        <v>223</v>
+      </c>
+      <c r="E46" s="65"/>
+      <c r="F46" s="63"/>
       <c r="G46" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H46" s="76"/>
-      <c r="I46" s="84" t="s">
-        <v>230</v>
+      <c r="H46" s="67"/>
+      <c r="I46" s="59" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="C47" s="77"/>
+        <v>218</v>
+      </c>
+      <c r="C47" s="61"/>
       <c r="D47" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="E47" s="49"/>
-      <c r="F47" s="52"/>
+        <v>224</v>
+      </c>
+      <c r="E47" s="65"/>
+      <c r="F47" s="63"/>
       <c r="G47" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="76"/>
-      <c r="I47" s="73"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="53"/>
     </row>
     <row r="48" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="C48" s="77"/>
+        <v>219</v>
+      </c>
+      <c r="C48" s="61"/>
       <c r="D48" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="52"/>
+        <v>225</v>
+      </c>
+      <c r="E48" s="65"/>
+      <c r="F48" s="63"/>
       <c r="G48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="76"/>
+      <c r="H48" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F20"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
     <mergeCell ref="C43:C48"/>
     <mergeCell ref="F43:F48"/>
     <mergeCell ref="E43:E48"/>
@@ -6048,27 +6069,6 @@
     <mergeCell ref="E39:E41"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F20"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/.pic/Labs/lab_05_decoder/rv32i_summary.xlsx
+++ b/.pic/Labs/lab_05_decoder/rv32i_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voult\Desktop\APS-reborn\.pic\Labs\lab_05_decoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF510CA5-4311-49B3-88B3-9F226336A794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FE2926-CD28-440E-B256-EA336F4003AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="2790" windowWidth="28800" windowHeight="18090" xr2:uid="{EB09394A-D6B3-4632-AD26-E6834047279C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EB09394A-D6B3-4632-AD26-E6834047279C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="237">
   <si>
     <t>Instr</t>
   </si>
@@ -3920,13 +3920,16 @@
       </rPr>
       <t>egister</t>
     </r>
+  </si>
+  <si>
+    <t>illegal_instr = 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4049,13 +4052,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF4472C4"/>
@@ -4247,17 +4243,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -4317,11 +4302,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4332,10 +4332,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4372,25 +4372,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4473,7 +4473,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4492,80 +4492,92 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4888,7 +4900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4B31E3-B287-4359-8B24-03B2324659CD}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I48" sqref="A1:I48"/>
     </sheetView>
   </sheetViews>
@@ -4947,10 +4959,10 @@
       <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="64" t="s">
         <v>193</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -4973,8 +4985,8 @@
       <c r="D3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="63"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
@@ -4995,8 +5007,8 @@
       <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="63"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
@@ -5017,8 +5029,8 @@
       <c r="D5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="63"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
@@ -5042,8 +5054,8 @@
       <c r="D6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="63"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
@@ -5065,8 +5077,8 @@
       <c r="D7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="63"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
@@ -5090,8 +5102,8 @@
       <c r="D8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="2" t="s">
         <v>37</v>
       </c>
@@ -5115,8 +5127,8 @@
       <c r="D9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="63"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="2" t="s">
         <v>37</v>
       </c>
@@ -5138,8 +5150,8 @@
       <c r="D10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="63"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="2" t="s">
         <v>44</v>
       </c>
@@ -5161,8 +5173,8 @@
       <c r="D11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="2" t="s">
         <v>47</v>
       </c>
@@ -5184,16 +5196,16 @@
       <c r="D12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="68" t="s">
         <v>194</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="64" t="s">
+      <c r="H12" s="61" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5210,12 +5222,12 @@
       <c r="D13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="63"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="65"/>
+      <c r="H13" s="62"/>
       <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5231,12 +5243,12 @@
       <c r="D14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="63"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="65"/>
+      <c r="H14" s="62"/>
       <c r="I14" s="35" t="s">
         <v>147</v>
       </c>
@@ -5254,12 +5266,12 @@
       <c r="D15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="63"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="65"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
@@ -5274,10 +5286,10 @@
       <c r="D16" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="E16" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="F16" s="63"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="4" t="s">
         <v>33</v>
       </c>
@@ -5301,8 +5313,8 @@
       <c r="D17" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="63"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="2" t="s">
         <v>37</v>
       </c>
@@ -5326,8 +5338,8 @@
       <c r="D18" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="63"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="5" t="s">
         <v>37</v>
       </c>
@@ -5349,14 +5361,14 @@
       <c r="D19" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="63"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="84" t="s">
+      <c r="H19" s="75" t="s">
         <v>52</v>
       </c>
       <c r="I19" s="32"/>
@@ -5374,12 +5386,12 @@
       <c r="D20" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="76"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5395,16 +5407,16 @@
       <c r="D21" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="64" t="s">
         <v>195</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="71" t="s">
+      <c r="H21" s="67" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5421,12 +5433,12 @@
       <c r="D22" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="63"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="65"/>
+      <c r="H22" s="62"/>
       <c r="I22" s="35" t="s">
         <v>159</v>
       </c>
@@ -5444,12 +5456,12 @@
       <c r="D23" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="63"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="65"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5465,12 +5477,12 @@
       <c r="D24" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="63"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="65"/>
+      <c r="H24" s="62"/>
       <c r="I24" s="33" t="s">
         <v>162</v>
       </c>
@@ -5488,12 +5500,12 @@
       <c r="D25" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="76"/>
-      <c r="F25" s="73"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="76"/>
+      <c r="H25" s="63"/>
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5509,16 +5521,16 @@
       <c r="D26" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="71" t="s">
+      <c r="E26" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="64" t="s">
         <v>196</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="71" t="s">
+      <c r="H26" s="67" t="s">
         <v>52</v>
       </c>
       <c r="I26" s="35" t="s">
@@ -5538,12 +5550,12 @@
       <c r="D27" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="63"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="65"/>
+      <c r="H27" s="62"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5559,12 +5571,12 @@
       <c r="D28" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="73"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="76"/>
+      <c r="H28" s="63"/>
       <c r="I28" s="36" t="s">
         <v>169</v>
       </c>
@@ -5582,16 +5594,16 @@
       <c r="D29" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="62" t="s">
+      <c r="F29" s="64" t="s">
         <v>197</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="71" t="s">
+      <c r="H29" s="67" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5608,12 +5620,12 @@
       <c r="D30" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="63"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="65"/>
       <c r="G30" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="65"/>
+      <c r="H30" s="62"/>
       <c r="I30" s="35" t="s">
         <v>171</v>
       </c>
@@ -5631,12 +5643,12 @@
       <c r="D31" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="63"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H31" s="65"/>
+      <c r="H31" s="62"/>
       <c r="I31" s="32"/>
     </row>
     <row r="32" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5652,12 +5664,12 @@
       <c r="D32" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="63"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H32" s="65"/>
+      <c r="H32" s="62"/>
       <c r="I32" s="33" t="s">
         <v>176</v>
       </c>
@@ -5675,12 +5687,12 @@
       <c r="D33" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="63"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="65"/>
       <c r="G33" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H33" s="65"/>
+      <c r="H33" s="62"/>
       <c r="I33" s="33" t="s">
         <v>179</v>
       </c>
@@ -5698,12 +5710,12 @@
       <c r="D34" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="76"/>
-      <c r="F34" s="77"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="66"/>
       <c r="G34" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H34" s="76"/>
+      <c r="H34" s="63"/>
       <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5728,7 +5740,7 @@
       <c r="G35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="71" t="s">
+      <c r="H35" s="67" t="s">
         <v>52</v>
       </c>
       <c r="I35" s="37" t="s">
@@ -5758,7 +5770,7 @@
       <c r="G36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="76"/>
+      <c r="H36" s="63"/>
       <c r="I36" s="37" t="s">
         <v>185</v>
       </c>
@@ -5776,16 +5788,16 @@
       <c r="D37" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="64" t="s">
+      <c r="E37" s="61" t="s">
         <v>123</v>
       </c>
       <c r="F37" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="G37" s="64" t="s">
+      <c r="G37" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="71" t="s">
+      <c r="H37" s="67" t="s">
         <v>52</v>
       </c>
       <c r="I37" s="38" t="s">
@@ -5805,65 +5817,73 @@
       <c r="D38" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="72"/>
+      <c r="E38" s="76"/>
       <c r="F38" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
       <c r="I38" s="39" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="84" t="s">
         <v>132</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="74" t="s">
+      <c r="D39" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="E39" s="64" t="s">
+      <c r="E39" s="82" t="s">
         <v>51</v>
       </c>
       <c r="F39" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="G39" s="71" t="s">
+      <c r="G39" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="68" t="s">
-        <v>52</v>
+      <c r="I39" s="39" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="26" t="s">
         <v>190</v>
       </c>
       <c r="C40" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="75"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="62" t="s">
+      <c r="D40" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="G40" s="65"/>
+      <c r="G40" s="67" t="s">
+        <v>10</v>
+      </c>
       <c r="H40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="69"/>
+      <c r="I40" s="59" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="41" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="57" t="s">
@@ -5875,14 +5895,16 @@
       <c r="C41" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="75"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="72"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="76"/>
       <c r="H41" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="I41" s="70"/>
+      <c r="I41" s="85" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="42" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="9" t="s">
@@ -5920,22 +5942,22 @@
       <c r="B43" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="77" t="s">
         <v>226</v>
       </c>
       <c r="D43" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="E43" s="64" t="s">
+      <c r="E43" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="62" t="s">
+      <c r="F43" s="64" t="s">
         <v>202</v>
       </c>
       <c r="G43" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="66" t="s">
+      <c r="H43" s="79" t="s">
         <v>52</v>
       </c>
       <c r="I43" s="48"/>
@@ -5947,16 +5969,16 @@
       <c r="B44" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="C44" s="61"/>
+      <c r="C44" s="78"/>
       <c r="D44" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="E44" s="65"/>
-      <c r="F44" s="63"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="65"/>
       <c r="G44" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="67"/>
+      <c r="H44" s="80"/>
       <c r="I44" s="35" t="s">
         <v>227</v>
       </c>
@@ -5968,16 +5990,16 @@
       <c r="B45" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C45" s="61"/>
+      <c r="C45" s="78"/>
       <c r="D45" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="E45" s="65"/>
-      <c r="F45" s="63"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="65"/>
       <c r="G45" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="H45" s="67"/>
+      <c r="H45" s="80"/>
     </row>
     <row r="46" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
@@ -5986,16 +6008,16 @@
       <c r="B46" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C46" s="61"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="E46" s="65"/>
-      <c r="F46" s="63"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="65"/>
       <c r="G46" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H46" s="67"/>
+      <c r="H46" s="80"/>
       <c r="I46" s="59" t="s">
         <v>228</v>
       </c>
@@ -6007,16 +6029,16 @@
       <c r="B47" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="C47" s="61"/>
+      <c r="C47" s="78"/>
       <c r="D47" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="E47" s="65"/>
-      <c r="F47" s="63"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="65"/>
       <c r="G47" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="67"/>
+      <c r="H47" s="80"/>
       <c r="I47" s="53"/>
     </row>
     <row r="48" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -6026,19 +6048,40 @@
       <c r="B48" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C48" s="61"/>
+      <c r="C48" s="78"/>
       <c r="D48" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="E48" s="65"/>
-      <c r="F48" s="63"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="65"/>
       <c r="G48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="67"/>
+      <c r="H48" s="80"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="29">
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="F43:F48"/>
+    <mergeCell ref="E43:E48"/>
+    <mergeCell ref="H43:H48"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="H26:H28"/>
     <mergeCell ref="E2:E11"/>
     <mergeCell ref="F2:F11"/>
     <mergeCell ref="E12:E15"/>
@@ -6047,28 +6090,6 @@
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="F43:F48"/>
-    <mergeCell ref="E43:E48"/>
-    <mergeCell ref="H43:H48"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D39:D41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/.pic/Labs/lab_05_decoder/rv32i_summary.xlsx
+++ b/.pic/Labs/lab_05_decoder/rv32i_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voult\Desktop\APS-reborn\.pic\Labs\lab_05_decoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FE2926-CD28-440E-B256-EA336F4003AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F07D894-21B1-428B-9CA0-7C2F10CEB999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EB09394A-D6B3-4632-AD26-E6834047279C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB09394A-D6B3-4632-AD26-E6834047279C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="238">
   <si>
     <t>Instr</t>
   </si>
@@ -3923,13 +3919,16 @@
   </si>
   <si>
     <t>illegal_instr = 1</t>
+  </si>
+  <si>
+    <t>0x18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4341,9 +4340,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4495,33 +4491,75 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4539,45 +4577,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4904,30 +4903,30 @@
       <selection activeCell="I48" sqref="A1:I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -4942,27 +4941,27 @@
       <c r="H1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="69" t="s">
         <v>193</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -4972,21 +4971,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="65"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
@@ -4994,21 +4993,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="65"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
@@ -5016,1051 +5015,1072 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="65"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="30" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="65"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="32"/>
+      <c r="I6" s="31"/>
     </row>
-    <row r="7" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="65"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="32" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="65"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="32" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="65"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="32"/>
+      <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="65"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="32"/>
+      <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:9" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="66"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="34"/>
+      <c r="I11" s="33"/>
     </row>
-    <row r="12" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="82" t="s">
         <v>194</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="71" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="65"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="32"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="65"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="35" t="s">
+      <c r="H14" s="72"/>
+      <c r="I14" s="34" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A15" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="65"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="62"/>
+      <c r="H15" s="72"/>
     </row>
-    <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A16" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="F16" s="65"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="32" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A17" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="65"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="32" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A18" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="65"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="32"/>
+      <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E19" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="65"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="75" t="s">
+      <c r="H19" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="32"/>
+      <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:9" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="69"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="63"/>
-      <c r="I20" s="34"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="33"/>
     </row>
-    <row r="21" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A21" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="69" t="s">
         <v>195</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="79" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="65"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="62"/>
-      <c r="I22" s="35" t="s">
+      <c r="H22" s="72"/>
+      <c r="I22" s="34" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A23" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="65"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="70"/>
       <c r="G23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="32"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="31"/>
     </row>
-    <row r="24" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="65"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="70"/>
       <c r="G24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="62"/>
-      <c r="I24" s="33" t="s">
+      <c r="H24" s="72"/>
+      <c r="I24" s="32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:9" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A25" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="69"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="75"/>
       <c r="G25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="63"/>
-      <c r="I25" s="34"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A26" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="64" t="s">
+      <c r="F26" s="69" t="s">
         <v>196</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="67" t="s">
+      <c r="H26" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="35" t="s">
+      <c r="I26" s="34" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A27" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="32"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="31"/>
     </row>
-    <row r="28" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:9" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A28" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="69"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="75"/>
       <c r="G28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="63"/>
-      <c r="I28" s="36" t="s">
+      <c r="H28" s="80"/>
+      <c r="I28" s="35" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A29" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="67" t="s">
+      <c r="E29" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="64" t="s">
+      <c r="F29" s="69" t="s">
         <v>197</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="67" t="s">
+      <c r="H29" s="79" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A30" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="65"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="70"/>
       <c r="G30" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="62"/>
-      <c r="I30" s="35" t="s">
+      <c r="H30" s="72"/>
+      <c r="I30" s="34" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="65"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="70"/>
       <c r="G31" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H31" s="62"/>
-      <c r="I31" s="32"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="31"/>
     </row>
-    <row r="32" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:9" ht="21.95" customHeight="1">
+      <c r="A32" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="65"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="70"/>
       <c r="G32" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H32" s="62"/>
-      <c r="I32" s="33" t="s">
+      <c r="H32" s="72"/>
+      <c r="I32" s="32" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A33" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="65"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="70"/>
       <c r="G33" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H33" s="62"/>
-      <c r="I33" s="33" t="s">
+      <c r="H33" s="72"/>
+      <c r="I33" s="32" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:14" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A34" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="66"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="81"/>
       <c r="G34" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H34" s="63"/>
-      <c r="I34" s="34"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="33"/>
     </row>
-    <row r="35" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A35" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>115</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="39" t="s">
         <v>198</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="67" t="s">
+      <c r="H35" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="I35" s="37" t="s">
+      <c r="I35" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="N35" s="52"/>
+      <c r="N35" s="51"/>
     </row>
-    <row r="36" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:14" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A36" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>119</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="41" t="s">
+      <c r="F36" s="40" t="s">
         <v>199</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="63"/>
-      <c r="I36" s="37" t="s">
+      <c r="H36" s="80"/>
+      <c r="I36" s="36" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
+    <row r="37" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A37" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="G37" s="61" t="s">
+      <c r="G37" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="67" t="s">
+      <c r="H37" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="I37" s="38" t="s">
+      <c r="I37" s="37" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:14" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A38" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="76"/>
-      <c r="F38" s="46" t="s">
+      <c r="E38" s="78"/>
+      <c r="F38" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="39" t="s">
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="38" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="84" t="s">
+    <row r="39" spans="1:14" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A39" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="E39" s="82" t="s">
+      <c r="E39" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="G39" s="60" t="s">
+      <c r="G39" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="81" t="s">
+      <c r="H39" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="39" t="s">
+      <c r="I39" s="38" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A40" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="86" t="s">
+      <c r="D40" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="E40" s="61" t="s">
+      <c r="E40" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="64" t="s">
+      <c r="F40" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="G40" s="67" t="s">
+      <c r="G40" s="79" t="s">
         <v>10</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="59" t="s">
+      <c r="I40" s="58" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="57" t="s">
+    <row r="41" spans="1:14" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A41" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="87"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="54" t="s">
+      <c r="D41" s="77"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="I41" s="85" t="s">
+      <c r="I41" s="65" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:14" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A42" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="57" t="s">
         <v>233</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="G42" s="45" t="s">
+      <c r="G42" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="I42" s="38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A43" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="I42" s="39" t="s">
-        <v>229</v>
-      </c>
+      <c r="I43" s="47"/>
     </row>
-    <row r="43" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C43" s="77" t="s">
-        <v>226</v>
-      </c>
-      <c r="D43" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="E43" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="G43" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43" s="48"/>
+    <row r="44" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A44" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="68"/>
+      <c r="D44" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" s="72"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="74"/>
+      <c r="I44" s="34" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="44" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E44" s="62"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="80"/>
-      <c r="I44" s="35" t="s">
-        <v>227</v>
-      </c>
+    <row r="45" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A45" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="68"/>
+      <c r="D45" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="72"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="74"/>
     </row>
-    <row r="45" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="C45" s="78"/>
-      <c r="D45" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E45" s="62"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="80"/>
+    <row r="46" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A46" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="68"/>
+      <c r="D46" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="72"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="74"/>
+      <c r="I46" s="58" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="46" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="E46" s="62"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" s="80"/>
-      <c r="I46" s="59" t="s">
-        <v>228</v>
-      </c>
+    <row r="47" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A47" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" s="68"/>
+      <c r="D47" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E47" s="72"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="74"/>
+      <c r="I47" s="52"/>
     </row>
-    <row r="47" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C47" s="78"/>
-      <c r="D47" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="E47" s="62"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="80"/>
-      <c r="I47" s="53"/>
-    </row>
-    <row r="48" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:14" ht="21.95" customHeight="1">
+      <c r="A48" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="12" t="s">
+      <c r="C48" s="68"/>
+      <c r="D48" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E48" s="62"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="45" t="s">
+      <c r="E48" s="72"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="80"/>
+      <c r="H48" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F20"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
     <mergeCell ref="C43:C48"/>
     <mergeCell ref="F43:F48"/>
     <mergeCell ref="E43:E48"/>
@@ -6069,27 +6089,6 @@
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F20"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/.pic/Labs/lab_05_decoder/rv32i_summary.xlsx
+++ b/.pic/Labs/lab_05_decoder/rv32i_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voult\Desktop\APS-reborn\.pic\Labs\lab_05_decoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F07D894-21B1-428B-9CA0-7C2F10CEB999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533F7B76-7539-4251-B290-61AA34295AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB09394A-D6B3-4632-AD26-E6834047279C}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="28800" windowHeight="18090" xr2:uid="{EB09394A-D6B3-4632-AD26-E6834047279C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>xor</t>
   </si>
   <si>
-    <t>Исключающее ИЛИ</t>
-  </si>
-  <si>
     <t>rd = rs1 ^ rs2</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>OR</t>
   </si>
   <si>
-    <t>Логическое ИЛИ</t>
-  </si>
-  <si>
     <t>rd = rs1 | rs2</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>AND</t>
   </si>
   <si>
-    <t>Логическое И</t>
-  </si>
-  <si>
     <t>rd = rs1 &amp; rs2</t>
   </si>
   <si>
@@ -194,25 +185,16 @@
     <t>xori</t>
   </si>
   <si>
-    <t>Исключающее ИЛИ с константой</t>
-  </si>
-  <si>
     <t>rd = rs1 ^ imm</t>
   </si>
   <si>
     <t>ori</t>
   </si>
   <si>
-    <t>Логическое ИЛИ с константой</t>
-  </si>
-  <si>
     <t>rd = rs1 | imm</t>
   </si>
   <si>
     <t>andi</t>
-  </si>
-  <si>
-    <t>Логическое И с константой</t>
   </si>
   <si>
     <t>rd = rs1 &amp; imm</t>
@@ -3922,13 +3904,31 @@
   </si>
   <si>
     <t>0x18</t>
+  </si>
+  <si>
+    <t>Побитовое И</t>
+  </si>
+  <si>
+    <t>Побитовое ИЛИ</t>
+  </si>
+  <si>
+    <t>Побитовое Исключающее ИЛИ</t>
+  </si>
+  <si>
+    <t>Побитовое Исключающее ИЛИ с константой</t>
+  </si>
+  <si>
+    <t>Побитовое ИЛИ с константой</t>
+  </si>
+  <si>
+    <t>Побитовое И с константой</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4512,71 +4512,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4903,7 +4903,7 @@
       <selection activeCell="I48" sqref="A1:I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.140625" style="7" bestFit="1" customWidth="1"/>
@@ -4916,7 +4916,7 @@
     <col min="10" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -4933,24 +4933,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21.95" customHeight="1">
+    <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>7</v>
@@ -4958,11 +4958,11 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="69" t="s">
-        <v>193</v>
+      <c r="F2" s="70" t="s">
+        <v>187</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -4971,12 +4971,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21.95" customHeight="1">
+    <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>13</v>
@@ -4984,8 +4984,8 @@
       <c r="D3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="70"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
@@ -4993,1073 +4993,1094 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21.95" customHeight="1">
+    <row r="4" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="68"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="21.95" customHeight="1">
+    <row r="5" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21.95" customHeight="1">
+    <row r="6" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="E6" s="68"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="31"/>
     </row>
-    <row r="7" spans="1:9" ht="21.95" customHeight="1">
+    <row r="7" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="21.95" customHeight="1">
+    <row r="8" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="68"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="21.95" customHeight="1">
+    <row r="9" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="70"/>
+        <v>37</v>
+      </c>
+      <c r="E9" s="68"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="1:9" ht="21.95" customHeight="1">
+    <row r="10" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="68"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:9" ht="21.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
+        <v>40</v>
+      </c>
+      <c r="E11" s="69"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="33"/>
     </row>
-    <row r="12" spans="1:9" ht="21.95" customHeight="1">
+    <row r="12" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="82" t="s">
-        <v>194</v>
+      <c r="F12" s="74" t="s">
+        <v>188</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="71" t="s">
-        <v>52</v>
+      <c r="H12" s="67" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21.95" customHeight="1">
+    <row r="13" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="70"/>
+        <v>51</v>
+      </c>
+      <c r="E13" s="68"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="72"/>
+        <v>18</v>
+      </c>
+      <c r="H13" s="68"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9" ht="21.95" customHeight="1">
+    <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="68"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="68"/>
+      <c r="I14" s="34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="68"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="68"/>
+    </row>
+    <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B16" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="72"/>
-      <c r="I14" s="34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="21.95" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="72"/>
-    </row>
-    <row r="16" spans="1:9" ht="21.95" customHeight="1">
-      <c r="A16" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="83" t="s">
-        <v>204</v>
-      </c>
-      <c r="F16" s="70"/>
+      <c r="E16" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="71"/>
       <c r="G16" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21.95" customHeight="1">
+    <row r="17" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="70"/>
+        <v>59</v>
+      </c>
+      <c r="E17" s="77"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="21.95" customHeight="1">
+    <row r="18" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="70"/>
+        <v>61</v>
+      </c>
+      <c r="E18" s="78"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:9" ht="21.95" customHeight="1">
+    <row r="19" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="70"/>
+        <v>63</v>
+      </c>
+      <c r="E19" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="71"/>
       <c r="G19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="88" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="H19" s="81" t="s">
+        <v>49</v>
       </c>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="1:9" ht="21.95" customHeight="1" thickBot="1">
+    <row r="20" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="87"/>
+        <v>63</v>
+      </c>
+      <c r="E20" s="80"/>
       <c r="F20" s="75"/>
       <c r="G20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="80"/>
+        <v>44</v>
+      </c>
+      <c r="H20" s="69"/>
       <c r="I20" s="33"/>
     </row>
-    <row r="21" spans="1:9" ht="21.95" customHeight="1">
+    <row r="21" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="69" t="s">
-        <v>195</v>
+        <v>67</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>189</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="79" t="s">
-        <v>52</v>
+      <c r="H21" s="73" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21.95" customHeight="1">
+    <row r="22" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="70"/>
+        <v>70</v>
+      </c>
+      <c r="E22" s="68"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="72"/>
+        <v>30</v>
+      </c>
+      <c r="H22" s="68"/>
       <c r="I22" s="34" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="21.95" customHeight="1">
+    <row r="23" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="70"/>
+        <v>73</v>
+      </c>
+      <c r="E23" s="68"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="72"/>
+        <v>41</v>
+      </c>
+      <c r="H23" s="68"/>
       <c r="I23" s="31"/>
     </row>
-    <row r="24" spans="1:9" ht="21.95" customHeight="1">
+    <row r="24" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="70"/>
+        <v>76</v>
+      </c>
+      <c r="E24" s="68"/>
+      <c r="F24" s="71"/>
       <c r="G24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="72"/>
+        <v>18</v>
+      </c>
+      <c r="H24" s="68"/>
       <c r="I24" s="32" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="21.95" customHeight="1" thickBot="1">
+    <row r="25" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="80"/>
+        <v>79</v>
+      </c>
+      <c r="E25" s="69"/>
       <c r="F25" s="75"/>
       <c r="G25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="80"/>
+        <v>34</v>
+      </c>
+      <c r="H25" s="69"/>
       <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="1:9" ht="21.95" customHeight="1">
+    <row r="26" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="69" t="s">
-        <v>196</v>
+        <v>82</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>190</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="79" t="s">
-        <v>52</v>
+      <c r="H26" s="73" t="s">
+        <v>49</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="21.95" customHeight="1">
+    <row r="27" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="70"/>
+        <v>86</v>
+      </c>
+      <c r="E27" s="68"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="72"/>
+        <v>30</v>
+      </c>
+      <c r="H27" s="68"/>
       <c r="I27" s="31"/>
     </row>
-    <row r="28" spans="1:9" ht="21.95" customHeight="1" thickBot="1">
+    <row r="28" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="80"/>
+        <v>89</v>
+      </c>
+      <c r="E28" s="69"/>
       <c r="F28" s="75"/>
       <c r="G28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="80"/>
+        <v>41</v>
+      </c>
+      <c r="H28" s="69"/>
       <c r="I28" s="35" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="21.95" customHeight="1">
+    <row r="29" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="69" t="s">
-        <v>197</v>
+        <v>92</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="70" t="s">
+        <v>191</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="79" t="s">
-        <v>52</v>
+      <c r="H29" s="73" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="21.95" customHeight="1">
+    <row r="30" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="70"/>
+        <v>96</v>
+      </c>
+      <c r="E30" s="68"/>
+      <c r="F30" s="71"/>
       <c r="G30" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H30" s="72"/>
+        <v>167</v>
+      </c>
+      <c r="H30" s="68"/>
       <c r="I30" s="34" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="21.95" customHeight="1">
+    <row r="31" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="70"/>
+        <v>99</v>
+      </c>
+      <c r="E31" s="68"/>
+      <c r="F31" s="71"/>
       <c r="G31" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H31" s="72"/>
+        <v>169</v>
+      </c>
+      <c r="H31" s="68"/>
       <c r="I31" s="31"/>
     </row>
-    <row r="32" spans="1:9" ht="21.95" customHeight="1">
+    <row r="32" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="68"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="68"/>
+      <c r="I32" s="32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="68"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H33" s="68"/>
+      <c r="I33" s="32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="D34" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="69"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="72"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H32" s="72"/>
-      <c r="I32" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="72"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H33" s="72"/>
-      <c r="I33" s="32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A34" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="80"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" s="80"/>
+      <c r="H34" s="69"/>
       <c r="I34" s="33"/>
     </row>
-    <row r="35" spans="1:14" ht="21.95" customHeight="1">
+    <row r="35" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="79" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="H35" s="73" t="s">
+        <v>49</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N35" s="51"/>
     </row>
-    <row r="36" spans="1:14" ht="21.95" customHeight="1" thickBot="1">
+    <row r="36" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="80"/>
+      <c r="H36" s="69"/>
       <c r="I36" s="36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="82"/>
+      <c r="F38" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="66" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A37" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="G37" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A38" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" s="78"/>
-      <c r="F38" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A39" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="66" t="s">
-        <v>191</v>
-      </c>
       <c r="E39" s="62" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G39" s="59" t="s">
         <v>10</v>
       </c>
       <c r="H39" s="61" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="21.95" customHeight="1">
+    <row r="40" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="E40" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="G40" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="G40" s="73" t="s">
         <v>10</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I40" s="58" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="21.95" customHeight="1" thickBot="1">
+    <row r="41" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="56" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="77"/>
-      <c r="E41" s="78"/>
+        <v>124</v>
+      </c>
+      <c r="D41" s="88"/>
+      <c r="E41" s="82"/>
       <c r="F41" s="75"/>
-      <c r="G41" s="78"/>
+      <c r="G41" s="82"/>
       <c r="H41" s="53" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I41" s="65" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="21.95" customHeight="1" thickBot="1">
+    <row r="42" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D42" s="57" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G42" s="44" t="s">
         <v>10</v>
       </c>
       <c r="H42" s="60" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="21.95" customHeight="1">
+    <row r="43" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="C43" s="67" t="s">
-        <v>226</v>
+        <v>203</v>
+      </c>
+      <c r="C43" s="83" t="s">
+        <v>220</v>
       </c>
       <c r="D43" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="E43" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="69" t="s">
-        <v>202</v>
+        <v>215</v>
+      </c>
+      <c r="E43" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="70" t="s">
+        <v>196</v>
       </c>
       <c r="G43" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="73" t="s">
-        <v>52</v>
+        <v>30</v>
+      </c>
+      <c r="H43" s="85" t="s">
+        <v>49</v>
       </c>
       <c r="I43" s="47"/>
     </row>
-    <row r="44" spans="1:14" ht="21.95" customHeight="1">
+    <row r="44" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="84"/>
+      <c r="D44" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" s="68"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="86"/>
+      <c r="I44" s="34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B44" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="11" t="s">
+      <c r="C45" s="84"/>
+      <c r="D45" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" s="68"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="86"/>
+    </row>
+    <row r="46" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="84"/>
+      <c r="D46" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" s="68"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="86"/>
+      <c r="I46" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="74"/>
-      <c r="I44" s="34" t="s">
-        <v>227</v>
-      </c>
     </row>
-    <row r="45" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A45" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E45" s="72"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="74"/>
-    </row>
-    <row r="46" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A46" s="11" t="s">
+    <row r="47" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="B46" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="E46" s="72"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" s="74"/>
-      <c r="I46" s="58" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A47" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B47" s="24" t="s">
+      <c r="C47" s="84"/>
+      <c r="D47" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E47" s="72"/>
-      <c r="F47" s="70"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="71"/>
       <c r="G47" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="74"/>
+        <v>22</v>
+      </c>
+      <c r="H47" s="86"/>
       <c r="I47" s="52"/>
     </row>
-    <row r="48" spans="1:14" ht="21.95" customHeight="1">
+    <row r="48" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B48" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="84"/>
+      <c r="D48" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="E48" s="72"/>
-      <c r="F48" s="70"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="71"/>
       <c r="G48" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" s="74"/>
+        <v>26</v>
+      </c>
+      <c r="H48" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="F43:F48"/>
+    <mergeCell ref="E43:E48"/>
+    <mergeCell ref="H43:H48"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="H26:H28"/>
     <mergeCell ref="E2:E11"/>
     <mergeCell ref="F2:F11"/>
     <mergeCell ref="E12:E15"/>
@@ -6068,27 +6089,6 @@
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="F43:F48"/>
-    <mergeCell ref="E43:E48"/>
-    <mergeCell ref="H43:H48"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="G40:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/.pic/Labs/lab_05_decoder/rv32i_summary.xlsx
+++ b/.pic/Labs/lab_05_decoder/rv32i_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voult\Desktop\APS-reborn\.pic\Labs\lab_05_decoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533F7B76-7539-4251-B290-61AA34295AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA97E5B9-6102-46D4-A302-BF886277C454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="28800" windowHeight="18090" xr2:uid="{EB09394A-D6B3-4632-AD26-E6834047279C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EB09394A-D6B3-4632-AD26-E6834047279C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="238">
   <si>
     <t>Instr</t>
   </si>
@@ -405,9 +405,6 @@
   </si>
   <si>
     <t>Передача управления отладчику</t>
-  </si>
-  <si>
-    <t>0x01</t>
   </si>
   <si>
     <t>fence</t>
@@ -2827,37 +2824,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Code Saver"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Code Saver"/>
-        <family val="3"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
     <t>func3</t>
   </si>
   <si>
@@ -3903,9 +3869,6 @@
     <t>illegal_instr = 1</t>
   </si>
   <si>
-    <t>0x18</t>
-  </si>
-  <si>
     <t>Побитовое И</t>
   </si>
   <si>
@@ -3922,13 +3885,75 @@
   </si>
   <si>
     <t>Побитовое И с константой</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Code Saver"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Code Saver"/>
+        <family val="3"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4071,6 +4096,13 @@
       <name val="Code Saver"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4320,7 +4352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4470,9 +4502,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -4489,9 +4518,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4900,7 +4926,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I48" sqref="A1:I48"/>
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4933,13 +4959,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>5</v>
@@ -4950,7 +4976,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>7</v>
@@ -4958,11 +4984,11 @@
       <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="70" t="s">
-        <v>187</v>
+      <c r="F2" s="68" t="s">
+        <v>186</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -4976,7 +5002,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>13</v>
@@ -4984,8 +5010,8 @@
       <c r="D3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="71"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
@@ -4998,16 +5024,16 @@
         <v>16</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="71"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
@@ -5023,13 +5049,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="71"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
@@ -5037,7 +5063,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5048,13 +5074,13 @@
         <v>24</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="71"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
@@ -5068,7 +5094,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>28</v>
@@ -5076,8 +5102,8 @@
       <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="71"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
@@ -5085,7 +5111,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5093,7 +5119,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>32</v>
@@ -5101,8 +5127,8 @@
       <c r="D8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="71"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="2" t="s">
         <v>34</v>
       </c>
@@ -5110,7 +5136,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5118,7 +5144,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>36</v>
@@ -5126,8 +5152,8 @@
       <c r="D9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="71"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="2" t="s">
         <v>34</v>
       </c>
@@ -5141,7 +5167,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>39</v>
@@ -5149,8 +5175,8 @@
       <c r="D10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="71"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="2" t="s">
         <v>41</v>
       </c>
@@ -5164,7 +5190,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>43</v>
@@ -5172,8 +5198,8 @@
       <c r="D11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="72"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="2" t="s">
         <v>44</v>
       </c>
@@ -5187,7 +5213,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>46</v>
@@ -5195,16 +5221,16 @@
       <c r="D12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="74" t="s">
-        <v>188</v>
+      <c r="F12" s="72" t="s">
+        <v>187</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="65" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5213,20 +5239,20 @@
         <v>50</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="71"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="68"/>
+      <c r="H13" s="66"/>
       <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5234,22 +5260,22 @@
         <v>52</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="71"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="68"/>
+      <c r="H14" s="66"/>
       <c r="I14" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5257,27 +5283,27 @@
         <v>54</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="71"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="68"/>
+      <c r="H15" s="66"/>
     </row>
     <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>28</v>
@@ -5285,10 +5311,10 @@
       <c r="D16" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="76" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="71"/>
+      <c r="E16" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="69"/>
       <c r="G16" s="4" t="s">
         <v>30</v>
       </c>
@@ -5296,7 +5322,7 @@
         <v>11</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5304,7 +5330,7 @@
         <v>58</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>32</v>
@@ -5312,8 +5338,8 @@
       <c r="D17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="71"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="69"/>
       <c r="G17" s="2" t="s">
         <v>34</v>
       </c>
@@ -5321,7 +5347,7 @@
         <v>11</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5329,7 +5355,7 @@
         <v>60</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>36</v>
@@ -5337,8 +5363,8 @@
       <c r="D18" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="71"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="5" t="s">
         <v>34</v>
       </c>
@@ -5352,7 +5378,7 @@
         <v>62</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>39</v>
@@ -5360,14 +5386,14 @@
       <c r="D19" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="79" t="s">
+      <c r="E19" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="71"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="81" t="s">
+      <c r="H19" s="79" t="s">
         <v>49</v>
       </c>
       <c r="I19" s="31"/>
@@ -5377,7 +5403,7 @@
         <v>64</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>43</v>
@@ -5385,12 +5411,12 @@
       <c r="D20" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="80"/>
-      <c r="F20" s="75"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="69"/>
+      <c r="H20" s="67"/>
       <c r="I20" s="33"/>
     </row>
     <row r="21" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5398,7 +5424,7 @@
         <v>65</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>66</v>
@@ -5406,16 +5432,16 @@
       <c r="D21" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="70" t="s">
-        <v>189</v>
+      <c r="F21" s="68" t="s">
+        <v>188</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="73" t="s">
+      <c r="H21" s="71" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5424,7 +5450,7 @@
         <v>68</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>69</v>
@@ -5432,14 +5458,14 @@
       <c r="D22" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="71"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="68"/>
+      <c r="H22" s="66"/>
       <c r="I22" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5447,7 +5473,7 @@
         <v>71</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>72</v>
@@ -5455,12 +5481,12 @@
       <c r="D23" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="71"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="68"/>
+      <c r="H23" s="66"/>
       <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5468,7 +5494,7 @@
         <v>74</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>75</v>
@@ -5476,14 +5502,14 @@
       <c r="D24" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="71"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="69"/>
       <c r="G24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="68"/>
+      <c r="H24" s="66"/>
       <c r="I24" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5491,7 +5517,7 @@
         <v>77</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>78</v>
@@ -5499,12 +5525,12 @@
       <c r="D25" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="75"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="69"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="33"/>
     </row>
     <row r="26" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5512,7 +5538,7 @@
         <v>80</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>81</v>
@@ -5520,20 +5546,20 @@
       <c r="D26" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="70" t="s">
-        <v>190</v>
+      <c r="F26" s="68" t="s">
+        <v>189</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="73" t="s">
+      <c r="H26" s="71" t="s">
         <v>49</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5541,7 +5567,7 @@
         <v>84</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>85</v>
@@ -5549,12 +5575,12 @@
       <c r="D27" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="68"/>
-      <c r="F27" s="71"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="68"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5562,7 +5588,7 @@
         <v>87</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>88</v>
@@ -5570,14 +5596,14 @@
       <c r="D28" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="75"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="69"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5585,7 +5611,7 @@
         <v>90</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>91</v>
@@ -5593,16 +5619,16 @@
       <c r="D29" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="70" t="s">
-        <v>191</v>
+      <c r="F29" s="68" t="s">
+        <v>190</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="73" t="s">
+      <c r="H29" s="71" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5611,7 +5637,7 @@
         <v>94</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>95</v>
@@ -5619,14 +5645,14 @@
       <c r="D30" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="71"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H30" s="68"/>
+        <v>166</v>
+      </c>
+      <c r="H30" s="66"/>
       <c r="I30" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5634,7 +5660,7 @@
         <v>97</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>98</v>
@@ -5642,12 +5668,12 @@
       <c r="D31" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="71"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31" s="68"/>
+        <v>168</v>
+      </c>
+      <c r="H31" s="66"/>
       <c r="I31" s="31"/>
     </row>
     <row r="32" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5655,7 +5681,7 @@
         <v>100</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>101</v>
@@ -5663,14 +5689,14 @@
       <c r="D32" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="71"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="69"/>
       <c r="G32" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H32" s="68"/>
+        <v>171</v>
+      </c>
+      <c r="H32" s="66"/>
       <c r="I32" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5678,7 +5704,7 @@
         <v>103</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>104</v>
@@ -5686,14 +5712,14 @@
       <c r="D33" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="68"/>
-      <c r="F33" s="71"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="69"/>
       <c r="G33" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H33" s="68"/>
+        <v>174</v>
+      </c>
+      <c r="H33" s="66"/>
       <c r="I33" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5701,7 +5727,7 @@
         <v>105</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>106</v>
@@ -5709,12 +5735,12 @@
       <c r="D34" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="69"/>
-      <c r="F34" s="72"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="70"/>
       <c r="G34" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H34" s="69"/>
+        <v>176</v>
+      </c>
+      <c r="H34" s="67"/>
       <c r="I34" s="33"/>
     </row>
     <row r="35" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5722,7 +5748,7 @@
         <v>107</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>108</v>
@@ -5734,16 +5760,16 @@
         <v>110</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="73" t="s">
+      <c r="H35" s="71" t="s">
         <v>49</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N35" s="51"/>
     </row>
@@ -5752,7 +5778,7 @@
         <v>111</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>112</v>
@@ -5764,14 +5790,14 @@
         <v>48</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="69"/>
+      <c r="H36" s="67"/>
       <c r="I36" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5779,7 +5805,7 @@
         <v>114</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>115</v>
@@ -5787,20 +5813,20 @@
       <c r="D37" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="67" t="s">
+      <c r="E37" s="65" t="s">
         <v>117</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="G37" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="73" t="s">
+      <c r="H37" s="71" t="s">
         <v>49</v>
       </c>
       <c r="I37" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5808,7 +5834,7 @@
         <v>118</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C38" s="49" t="s">
         <v>119</v>
@@ -5816,43 +5842,43 @@
       <c r="D38" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="82"/>
+      <c r="E38" s="80"/>
       <c r="F38" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
+        <v>194</v>
+      </c>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
       <c r="I38" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="C39" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="66" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="62" t="s">
+      <c r="D39" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="60" t="s">
         <v>48</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="G39" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="G39" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="61" t="s">
+      <c r="H39" s="59" t="s">
         <v>49</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -5860,206 +5886,204 @@
         <v>121</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C40" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="87" t="s">
-        <v>230</v>
-      </c>
-      <c r="E40" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="G40" s="73" t="s">
+      <c r="D40" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="F40" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="58" t="s">
+      <c r="H40" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="57" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="55" t="s">
         <v>123</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C41" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="88"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="I41" s="65" t="s">
+      <c r="D41" s="86"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="63" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="D42" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F42" s="42" t="s">
         <v>224</v>
-      </c>
-      <c r="C42" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>227</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" s="42" t="s">
-        <v>226</v>
       </c>
       <c r="G42" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="60" t="s">
-        <v>231</v>
+      <c r="H42" s="59" t="s">
+        <v>49</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="C43" s="83" t="s">
-        <v>220</v>
-      </c>
-      <c r="D43" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="E43" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="70" t="s">
-        <v>196</v>
+      <c r="F43" s="68" t="s">
+        <v>195</v>
       </c>
       <c r="G43" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H43" s="85" t="s">
+      <c r="H43" s="83" t="s">
         <v>49</v>
       </c>
       <c r="I43" s="47"/>
     </row>
     <row r="44" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="C44" s="84"/>
+        <v>207</v>
+      </c>
+      <c r="C44" s="82"/>
       <c r="D44" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E44" s="68"/>
-      <c r="F44" s="71"/>
+        <v>214</v>
+      </c>
+      <c r="E44" s="66"/>
+      <c r="F44" s="69"/>
       <c r="G44" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="H44" s="86"/>
+      <c r="H44" s="84"/>
       <c r="I44" s="34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="C45" s="84"/>
+        <v>208</v>
+      </c>
+      <c r="C45" s="82"/>
       <c r="D45" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E45" s="68"/>
-      <c r="F45" s="71"/>
+        <v>212</v>
+      </c>
+      <c r="E45" s="66"/>
+      <c r="F45" s="69"/>
       <c r="G45" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="H45" s="86"/>
+      <c r="H45" s="84"/>
     </row>
     <row r="46" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="C46" s="84"/>
+        <v>209</v>
+      </c>
+      <c r="C46" s="82"/>
       <c r="D46" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E46" s="68"/>
-      <c r="F46" s="71"/>
+        <v>215</v>
+      </c>
+      <c r="E46" s="66"/>
+      <c r="F46" s="69"/>
       <c r="G46" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="86"/>
-      <c r="I46" s="58" t="s">
-        <v>222</v>
+      <c r="H46" s="84"/>
+      <c r="I46" s="57" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" s="84"/>
+        <v>210</v>
+      </c>
+      <c r="C47" s="82"/>
       <c r="D47" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E47" s="68"/>
-      <c r="F47" s="71"/>
+        <v>216</v>
+      </c>
+      <c r="E47" s="66"/>
+      <c r="F47" s="69"/>
       <c r="G47" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="86"/>
+      <c r="H47" s="84"/>
       <c r="I47" s="52"/>
     </row>
     <row r="48" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C48" s="84"/>
+        <v>211</v>
+      </c>
+      <c r="C48" s="82"/>
       <c r="D48" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E48" s="68"/>
-      <c r="F48" s="71"/>
+        <v>217</v>
+      </c>
+      <c r="E48" s="66"/>
+      <c r="F48" s="69"/>
       <c r="G48" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="86"/>
+      <c r="H48" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
     <mergeCell ref="C43:C48"/>
     <mergeCell ref="F43:F48"/>
     <mergeCell ref="E43:E48"/>
@@ -6068,6 +6092,7 @@
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
     <mergeCell ref="E29:E34"/>
     <mergeCell ref="F29:F34"/>
     <mergeCell ref="H29:H34"/>
